--- a/TheProject/music_data/20_worst_songs.xlsx
+++ b/TheProject/music_data/20_worst_songs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuanxu/datascience/CSE519-2017-111634527/TheProject/music_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\留学\apply\Stonybrook\2017 Fall\Data Science\homework2\TheProject\music_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="4455" yWindow="465" windowWidth="28800" windowHeight="15945" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="delete NaN" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
   <si>
     <t>Ray Charles</t>
   </si>
@@ -340,6 +340,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, </t>
     </r>
@@ -348,6 +349,7 @@
         <sz val="12"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>comedy</t>
     </r>
@@ -406,6 +408,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, </t>
     </r>
@@ -414,6 +417,7 @@
         <sz val="12"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>blues rock</t>
     </r>
@@ -476,6 +480,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, </t>
     </r>
@@ -484,6 +489,7 @@
         <sz val="12"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>calypso</t>
     </r>
@@ -514,6 +520,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, </t>
     </r>
@@ -522,6 +529,7 @@
         <sz val="12"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>country</t>
     </r>
@@ -544,6 +552,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, </t>
     </r>
@@ -552,6 +561,7 @@
         <sz val="12"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Rock &amp; Roll</t>
     </r>
@@ -578,6 +588,7 @@
         <sz val="14"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>The Four Coins</t>
     </r>
@@ -586,6 +597,7 @@
         <sz val="14"/>
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t> in </t>
     </r>
@@ -594,6 +606,7 @@
         <sz val="14"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1957</t>
     </r>
@@ -602,6 +615,7 @@
         <sz val="14"/>
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t> (#11 US) and by </t>
     </r>
@@ -610,6 +624,7 @@
         <sz val="14"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>The Lettermen</t>
     </r>
@@ -618,6 +633,7 @@
         <sz val="14"/>
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t> in </t>
     </r>
@@ -626,6 +642,7 @@
         <sz val="14"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1969</t>
     </r>
@@ -634,6 +651,7 @@
         <sz val="14"/>
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t> (#64 US).</t>
     </r>
@@ -648,6 +666,7 @@
         <sz val="14"/>
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t> used "Shangri-La" on his </t>
     </r>
@@ -656,6 +675,7 @@
         <sz val="14"/>
         <color rgb="FF0B0080"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1950s-60s TV variety show</t>
     </r>
@@ -664,6 +684,7 @@
         <sz val="14"/>
         <color rgb="FF222222"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t> as theme music for his popular millionaire character Reginald van Gleason III.</t>
     </r>
@@ -680,14 +701,22 @@
   </si>
   <si>
     <t>many versions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two version： 30085 5226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -735,21 +764,25 @@
       <sz val="12"/>
       <color rgb="FF0B0080"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF0B0080"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -796,27 +829,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1088,19 +1124,19 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="142.75" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1120,7 +1156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1140,7 +1176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1154,7 +1190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1168,7 +1204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1182,7 +1218,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1193,7 +1229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1204,10 +1240,10 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1221,7 +1257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -1235,7 +1271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -1249,7 +1285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -1266,7 +1302,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -1277,7 +1313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -1291,7 +1327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -1308,7 +1344,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -1322,7 +1358,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>115</v>
       </c>
@@ -1336,7 +1372,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -1350,7 +1386,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>102</v>
       </c>
@@ -1364,7 +1400,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -1375,7 +1411,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -1386,7 +1422,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="18">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -1396,11 +1432,14 @@
       <c r="C21" t="s">
         <v>66</v>
       </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
       <c r="E21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="18">
       <c r="E22" t="s">
         <v>114</v>
       </c>
@@ -1431,17 +1470,17 @@
       <selection activeCell="A20" sqref="A1:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="37.5" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1461,7 +1500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="157.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="110.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1501,7 +1540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1515,7 +1554,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1526,7 +1565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1540,7 +1579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1551,7 +1590,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1562,7 +1601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1576,7 +1615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,7 +1626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1598,7 +1637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -1609,7 +1648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
@@ -1620,7 +1659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -1631,7 +1670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -1642,7 +1681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1653,7 +1692,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -1661,7 +1700,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>49</v>
       </c>
@@ -1672,7 +1711,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1683,7 +1722,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="31.5">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1704,6 +1743,6 @@
     <hyperlink ref="C9" r:id="rId2" tooltip="Pop music"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>